--- a/Results/Calculation/plsa-partial-ner-elmo-money.xlsx
+++ b/Results/Calculation/plsa-partial-ner-elmo-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>0.63</v>
+        <v>0.6353591160220995</v>
       </c>
       <c r="G2">
-        <v>0.75</v>
+        <v>0.7615894039735099</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>0.6927710843373495</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>0.6993006993006993</v>
       </c>
       <c r="G3">
-        <v>0.91</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="H3">
-        <v>0.79</v>
+        <v>0.7952286282306164</v>
       </c>
       <c r="I3">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -499,16 +499,16 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>0.9399999999999999</v>
+        <v>0.9420289855072463</v>
       </c>
       <c r="G4">
-        <v>0.84</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="H4">
-        <v>0.89</v>
+        <v>0.8904109589041096</v>
       </c>
       <c r="I4">
         <v>0.93</v>
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>0.87</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="G5">
-        <v>0.73</v>
+        <v>0.7153846153846154</v>
       </c>
       <c r="H5">
-        <v>0.79</v>
+        <v>0.7881355932203389</v>
       </c>
       <c r="I5">
         <v>0.89</v>
